--- a/data/ScannerOutput.xlsx
+++ b/data/ScannerOutput.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1099496-67A9-413B-89E4-69103221882B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,8 +73,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -164,6 +165,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -199,6 +217,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -374,12 +409,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
